--- a/Project/static/output.xlsx
+++ b/Project/static/output.xlsx
@@ -14,18 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>address</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t>上次</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>電話2</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>2021-03</t>
+  </si>
+  <si>
+    <t>2022-04-16</t>
+  </si>
+  <si>
+    <t>陳澤榮</t>
+  </si>
+  <si>
+    <t>0997324580</t>
+  </si>
+  <si>
+    <t>0915693804</t>
+  </si>
+  <si>
+    <t>0943216598</t>
+  </si>
+  <si>
+    <t>0985194320</t>
+  </si>
+  <si>
+    <t>0921980457</t>
+  </si>
+  <si>
+    <t>98614520</t>
+  </si>
+  <si>
+    <t>05123748</t>
+  </si>
+  <si>
+    <t>52076389</t>
+  </si>
+  <si>
+    <t>87591263</t>
+  </si>
+  <si>
+    <t>13862740</t>
+  </si>
+  <si>
+    <t>新北市信義區</t>
+  </si>
+  <si>
+    <t>台北市仁愛區</t>
+  </si>
+  <si>
+    <t>基隆市信義區</t>
+  </si>
+  <si>
+    <t>基隆市中正區</t>
+  </si>
+  <si>
+    <t>台中市仁愛區</t>
   </si>
 </sst>
 </file>
@@ -383,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +458,94 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Project/static/output.xlsx
+++ b/Project/static/output.xlsx
@@ -1,114 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
-  <si>
-    <t>上次</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>電話</t>
-  </si>
-  <si>
-    <t>電話2</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>陳澤榮</t>
-  </si>
-  <si>
-    <t>0997324580</t>
-  </si>
-  <si>
-    <t>0915693804</t>
-  </si>
-  <si>
-    <t>0943216598</t>
-  </si>
-  <si>
-    <t>0985194320</t>
-  </si>
-  <si>
-    <t>0921980457</t>
-  </si>
-  <si>
-    <t>98614520</t>
-  </si>
-  <si>
-    <t>05123748</t>
-  </si>
-  <si>
-    <t>52076389</t>
-  </si>
-  <si>
-    <t>87591263</t>
-  </si>
-  <si>
-    <t>13862740</t>
-  </si>
-  <si>
-    <t>新北市信義區</t>
-  </si>
-  <si>
-    <t>台北市仁愛區</t>
-  </si>
-  <si>
-    <t>基隆市信義區</t>
-  </si>
-  <si>
-    <t>基隆市中正區</t>
-  </si>
-  <si>
-    <t>台中市仁愛區</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,116 +420,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>上次</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>電話</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>地址</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2017-07-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>順有食品</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>李順益</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0919900288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>宜蘭中興路155巷3號</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>葉春美</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0928085287</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>宜蘭市中興路155巷5號</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Project/static/output.xlsx
+++ b/Project/static/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,66 +458,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2017-07-21</t>
+          <t>2021-10-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>順有食品</t>
+          <t xml:space="preserve">艾立斯(台中潔恩pass)				</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">9583753,0972212198(邱束貞)								</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t xml:space="preserve">冬山鄉永美村永清路69號			</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>李順益</t>
+          <t>周逸</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0919900288</t>
+          <t>0910668399 (小周),0956563192</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>宜蘭中興路155巷3號</t>
+          <t>羅東鎮浮侖巷22號</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>葉春美</t>
+          <t>豆漿姑 游世傑</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0928085287</t>
+          <t>0920432872</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>宜蘭市中興路155巷5號</t>
+          <t>冬山鄉義成路3段322號</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>宋沛凌</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0923282726</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>三星鄉上將路五段</t>
         </is>
       </c>
     </row>

--- a/Project/static/output.xlsx
+++ b/Project/static/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,88 +458,242 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-10-07</t>
+          <t>2018-05-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">艾立斯(台中潔恩pass)				</t>
+          <t>葉春美</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9583753,0972212198(邱束貞)								</t>
+          <t>0928085287</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">冬山鄉永美村永清路69號			</t>
+          <t>宜蘭市中興路155巷5號</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>周逸</t>
+          <t>李順益</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0910668399 (小周),0956563192</t>
+          <t>0919900288</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>羅東鎮浮侖巷22號</t>
+          <t>宜蘭市中興路155巷3號</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>豆漿姑 游世傑</t>
+          <t>黃三洲</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0920432872</t>
+          <t>0983049048</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>冬山鄉義成路3段322號</t>
+          <t>宜蘭市中興路248巷15號</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>宋沛凌</t>
+          <t xml:space="preserve">金舞台小吃				</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0923282726</t>
+          <t xml:space="preserve">9563879,0955800747（男）			</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>三星鄉上將路五段</t>
+          <t xml:space="preserve">羅東鎮康莊路36-4號6樓				</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">莊正參				</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0922627789</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">羅東鎮南盟路69巷1號6F-1				</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-11-25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">林光輝				</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9906619,0919216317					</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>蘇澳鎮信義路</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-11-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">郭宜橤,藍嘉榮				</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0911911536,0980120270(先生)			</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新北市三重區成功路110號4樓之6				</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>林宏彥</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0921926158, 9281912</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>果菜市場</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>高林鍋物燒烤(水電阿賢)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9324316</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宜蘭市三清路34號				</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>春水笈</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9882623,0975513760(林國文)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>礁溪鄉六結路128號</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>順有食品</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
